--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,75 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G23" authorId="0">
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关联EquipLevelup表promoteLimit突破次数限制</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+装备突破属性公式=（装备突破次数对应强度等级*突破属性成长率+突破属性固定值）*品质系数
+成长率和固定值配置在att表内，att的id被EquipEnchant表读取</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+包括1级就有的突破属性
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0">
+    <comment ref="G27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0">
+    <comment ref="G30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0">
+    <comment ref="G37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -228,196 +296,205 @@
     <t>number</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>armorRatio</t>
+  </si>
+  <si>
+    <t>护甲减免系数</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>dmgRatio</t>
+  </si>
+  <si>
+    <t>总伤害率系数</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>critRatio</t>
+  </si>
+  <si>
+    <t>暴击率系数</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>critIncRatio</t>
+  </si>
+  <si>
+    <t>暴击倍数加成系数</t>
+  </si>
+  <si>
+    <t>healRatio</t>
+  </si>
+  <si>
+    <t>治疗量系数</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>effectHitRatio</t>
+  </si>
+  <si>
+    <t>效果命中系数</t>
+  </si>
+  <si>
+    <t>effectResistRatio</t>
+  </si>
+  <si>
+    <t>效果抵抗系数</t>
+  </si>
+  <si>
+    <t>elementDmgRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型加成系数</t>
+  </si>
+  <si>
+    <t>elementResRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型抗性系数</t>
+  </si>
+  <si>
+    <t>materialContainerMax</t>
+  </si>
+  <si>
+    <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>equipContainerMax</t>
+  </si>
+  <si>
+    <t>装备背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>crystalContainerMax</t>
+  </si>
+  <si>
+    <t>晶石容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>equipPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]队伍等级限制</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>0,10,30,45,55,60,65,70</t>
+  </si>
+  <si>
+    <t>equipPromoteIntensityRatio</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]每次强度等级</t>
+  </si>
+  <si>
+    <t>1,20,40,50,60,70,80,90</t>
+  </si>
+  <si>
+    <t>equipLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>装备升级和突破品质参数</t>
+  </si>
+  <si>
+    <t>[]number</t>
+  </si>
+  <si>
+    <t>0.5,0.75,1,1.25,1.5</t>
+  </si>
+  <si>
+    <t>equipSwallowExpLoss</t>
+  </si>
+  <si>
+    <t>装备吞噬经验折损率</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>equipExpItems</t>
+  </si>
+  <si>
+    <t>装备经验道具id</t>
+  </si>
+  <si>
+    <t>150,151,152,153,154</t>
+  </si>
+  <si>
+    <t>heroLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>英雄升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>heroExpItems</t>
+  </si>
+  <si>
+    <t>英雄经验道具id</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>equipLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>装备升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>equipLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>装备升级成长率attid</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>heroPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>英雄突破[0-5]队伍等级限制</t>
+  </si>
+  <si>
+    <t>0,1,10,20,35,45</t>
+  </si>
+  <si>
+    <t>heroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>英雄升级品质参数：N，R，SR，SSR，UR</t>
+  </si>
+  <si>
+    <t>0,0,0.75,1,1.25</t>
+  </si>
+  <si>
+    <t>heroLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>英雄升级成长率attid</t>
+  </si>
+  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>armorRatio</t>
-  </si>
-  <si>
-    <t>护甲减免系数</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>dmgRatio</t>
-  </si>
-  <si>
-    <t>总伤害率系数</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>critRatio</t>
-  </si>
-  <si>
-    <t>暴击率系数</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>critIncRatio</t>
-  </si>
-  <si>
-    <t>暴击倍数加成系数</t>
-  </si>
-  <si>
-    <t>healRatio</t>
-  </si>
-  <si>
-    <t>治疗量系数</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>effectHitRatio</t>
-  </si>
-  <si>
-    <t>效果命中系数</t>
-  </si>
-  <si>
-    <t>effectResistRatio</t>
-  </si>
-  <si>
-    <t>效果抵抗系数</t>
-  </si>
-  <si>
-    <t>elementDmgRatio</t>
-  </si>
-  <si>
-    <t>各伤害类型加成系数</t>
-  </si>
-  <si>
-    <t>elementResRatio</t>
-  </si>
-  <si>
-    <t>各伤害类型抗性系数</t>
-  </si>
-  <si>
-    <t>materialContainerMax</t>
-  </si>
-  <si>
-    <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>equipContainerMax</t>
-  </si>
-  <si>
-    <t>装备背包容量上限，超过此容量无法获得物品</t>
-  </si>
-  <si>
-    <t>crystalContainerMax</t>
-  </si>
-  <si>
-    <t>晶石容量上限，超过此容量无法获得物品</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>equipPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>装备突破[0-5]队伍等级限制</t>
-  </si>
-  <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>0,10,20,30,40,50</t>
-  </si>
-  <si>
-    <t>equipLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>装备升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>[]number</t>
-  </si>
-  <si>
-    <t>0.5,0.75,1,1.25,1.5</t>
-  </si>
-  <si>
-    <t>equipSwallowExpLoss</t>
-  </si>
-  <si>
-    <t>装备吞噬经验折损率</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>equipExpItems</t>
-  </si>
-  <si>
-    <t>装备经验道具id</t>
-  </si>
-  <si>
-    <t>150,151,152,153,154</t>
-  </si>
-  <si>
-    <t>heroLevelupExpGoldRatio</t>
-  </si>
-  <si>
-    <t>英雄升级经验对应消耗金币比例</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>heroExpItems</t>
-  </si>
-  <si>
-    <t>英雄经验道具id</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>equipLevelupExpGoldRatio</t>
-  </si>
-  <si>
-    <t>装备升级经验对应消耗金币比例</t>
-  </si>
-  <si>
-    <t>equipLevelGrowRatioAttId</t>
-  </si>
-  <si>
-    <t>装备升级成长率attid</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>heroPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>英雄突破[0-5]队伍等级限制</t>
-  </si>
-  <si>
-    <t>0,1,10,20,35,45</t>
-  </si>
-  <si>
-    <t>heroLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>英雄升级品质参数：N，R，SR，SSR，UR</t>
-  </si>
-  <si>
-    <t>0,0,0.75,1,1.25</t>
-  </si>
-  <si>
-    <t>heroLevelGrowRatioAttId</t>
-  </si>
-  <si>
-    <t>英雄升级成长率attid</t>
   </si>
   <si>
     <t>crystalSwallowExpLoss</t>
@@ -500,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -526,25 +603,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,13 +623,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -570,8 +670,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,25 +692,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,17 +730,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,15 +739,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,17 +747,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,175 +791,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,41 +1045,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +1067,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,180 +1104,193 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1236,6 +1313,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2437,13 +2517,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
@@ -2723,7 +2803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -2739,8 +2819,9 @@
       <c r="G17" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -2751,30 +2832,32 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -2785,13 +2868,14 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -2802,13 +2886,14 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -2819,30 +2904,32 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
+        <v>64</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -2856,58 +2943,59 @@
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:7">
@@ -2941,24 +3029,24 @@
         <v>7</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
@@ -2972,7 +3060,7 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>86</v>
@@ -2989,7 +3077,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>89</v>
@@ -3006,7 +3094,7 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>92</v>
@@ -3023,7 +3111,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>95</v>
@@ -3043,24 +3131,41 @@
         <v>45</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>100</v>
+      <c r="G37" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -461,7 +461,7 @@
     <t>装备经验道具id</t>
   </si>
   <si>
-    <t>150,151,152,153,154</t>
+    <t>400,401,402,403,404</t>
   </si>
   <si>
     <t>heroLevelupExpGoldRatio</t>
@@ -554,9 +554,6 @@
     <t>晶石吞噬经验折损率</t>
   </si>
   <si>
-    <t>8000</t>
-  </si>
-  <si>
     <t>crystalLevelupExpGoldRatio</t>
   </si>
   <si>
@@ -569,7 +566,7 @@
     <t>晶石经验道具id</t>
   </si>
   <si>
-    <t>200,201,202,203,204</t>
+    <t>600,601,602,603,604</t>
   </si>
   <si>
     <t>crystalLevelupIntensityRatio</t>
@@ -587,7 +584,7 @@
     <t>晶石升级品质系数</t>
   </si>
   <si>
-    <t>0.7,0.85,1,1.15,1.25</t>
+    <t>0.7,0.85,1,1.15,1.3</t>
   </si>
   <si>
     <t>crystalLevelupRandRatio</t>
@@ -596,7 +593,7 @@
     <t>晶石升级副属性随机区间系数</t>
   </si>
   <si>
-    <t>0.9,1.1</t>
+    <t>0.7,1.1</t>
   </si>
   <si>
     <t>crystalViceAttAddLevel</t>
@@ -620,7 +617,7 @@
     <t>晶石副属性随机到相同属性的次数上限</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -629,9 +626,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -660,68 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -737,13 +672,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -751,7 +679,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,11 +723,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,8 +786,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +839,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,19 +935,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,55 +983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,85 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,24 +1096,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1134,36 +1113,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,16 +1142,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,133 +1208,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2570,8 +2567,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -3128,146 +3125,146 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -578,22 +578,31 @@
     <t>4</t>
   </si>
   <si>
-    <t>crystalLevelupQualityRatio</t>
-  </si>
-  <si>
-    <t>晶石升级品质系数</t>
+    <t>crystalLevelupMainQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级主属性品质系数</t>
   </si>
   <si>
     <t>0.7,0.85,1,1.15,1.3</t>
   </si>
   <si>
+    <t>crystalLevelupViceQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级副属性品质系数</t>
+  </si>
+  <si>
+    <t>0.6,0.7,0.8,0.9,1</t>
+  </si>
+  <si>
     <t>crystalLevelupRandRatio</t>
   </si>
   <si>
     <t>晶石升级副属性随机区间系数</t>
   </si>
   <si>
-    <t>0.7,1.1</t>
+    <t>0.8,1.1</t>
   </si>
   <si>
     <t>crystalViceAttAddLevel</t>
@@ -618,6 +627,15 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>sweepStageItem</t>
+  </si>
+  <si>
+    <t>扫荡券物品id</t>
+  </si>
+  <si>
+    <t>615</t>
   </si>
 </sst>
 </file>
@@ -625,10 +643,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -658,13 +676,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -672,83 +683,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,11 +705,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,11 +796,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,12 +825,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -839,7 +857,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +899,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,19 +947,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,91 +1001,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,31 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,11 +1111,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1137,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,30 +1194,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1196,10 +1214,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1226,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2565,10 +2583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -3227,7 +3245,7 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>106</v>
@@ -3247,24 +3265,58 @@
         <v>45</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>111</v>
+      <c r="G41" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
